--- a/Excel_Restaurant_Reviews_sample.xlsx
+++ b/Excel_Restaurant_Reviews_sample.xlsx
@@ -14,30 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Unnamed: 0</t>
   </si>
   <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
     <t>Polarity</t>
   </si>
   <si>
     <t>Review</t>
   </si>
   <si>
-    <t>Wow Loved this place</t>
-  </si>
-  <si>
-    <t>Crust is not good</t>
-  </si>
-  <si>
-    <t>Not tasty and the texture was just nasty</t>
-  </si>
-  <si>
-    <t>Stopped by during the late May bank holiday off Rick Steve recommendation and loved it</t>
-  </si>
-  <si>
-    <t>The selection on the menu was great and so were the prices</t>
+    <t>wow loved this place</t>
+  </si>
+  <si>
+    <t>crust is not good</t>
+  </si>
+  <si>
+    <t>not tasty and the texture was just nasty</t>
+  </si>
+  <si>
+    <t>stopped by during the late may bank holiday off rick steve recommendation and loved it</t>
+  </si>
+  <si>
+    <t>the selection on the menu was great and so were the prices</t>
   </si>
 </sst>
 </file>
@@ -395,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,60 +414,78 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>-1</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>-1</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
